--- a/管理/仕様＆企画/仕様/仕様書要件.xlsx
+++ b/管理/仕様＆企画/仕様/仕様書要件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90709E24-6B86-4EB0-A266-205042D85FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A527E57-DC0D-4707-B295-2588E005CDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3A9712-6EA3-4F81-A83A-E78ADAC04FDD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0A3A9712-6EA3-4F81-A83A-E78ADAC04FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="PGタスク" sheetId="1" r:id="rId1"/>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0361CA-08B6-43F1-81C1-08E87DC320AA}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7F0C33-0304-4685-A6BE-6682DC1BF018}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
